--- a/file/personal/roleImportant/角色要事记录表_2026.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="13160" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="22800" windowHeight="13160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +468,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF77BC65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF77BC65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBDC0BF"/>
         <bgColor rgb="FFAAAAAA"/>
       </patternFill>
@@ -494,12 +506,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
     <fill>
@@ -952,7 +958,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,16 +982,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -994,89 +1000,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,19 +1110,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1125,10 +1137,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1137,25 +1149,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1571,231 +1580,231 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.4134615384615" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="6" style="9"/>
+    <col min="1" max="1" width="14.4134615384615" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="6" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1819,162 +1828,162 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="9"/>
-    <col min="2" max="2" width="99.1153846153846" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.0961538461538" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.3557692307692" style="9"/>
-    <col min="5" max="5" width="18.2692307692308" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.7788461538462" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="16.3557692307692" style="9"/>
+    <col min="1" max="1" width="16.3557692307692" style="11"/>
+    <col min="2" max="2" width="99.1153846153846" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.0961538461538" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.3557692307692" style="11"/>
+    <col min="5" max="5" width="18.2692307692308" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.7788461538462" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="16.3557692307692" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="13" customHeight="1" spans="1:5">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" ht="13" customHeight="1" spans="1:5">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" ht="13" customHeight="1" spans="1:5">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="1:5">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1" spans="1:5">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:5">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1985,10 +1994,10 @@
       <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1997,10 +2006,10 @@
       <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2011,10 +2020,10 @@
       <c r="B14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2025,13 +2034,13 @@
       <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2042,10 +2051,10 @@
       <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2056,10 +2065,10 @@
       <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2070,10 +2079,10 @@
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2087,7 +2096,7 @@
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9 D10 D11 D2:D5 D12:D13 D14:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2104,8 +2113,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2156,8 +2165,8 @@
       <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -2166,8 +2175,8 @@
       <c r="B6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -2176,7 +2185,7 @@
       <c r="B7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="8"/>
@@ -2186,8 +2195,8 @@
       <c r="B8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -2196,7 +2205,7 @@
       <c r="B9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="8"/>
@@ -2206,7 +2215,7 @@
       <c r="B10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="8"/>
@@ -2409,7 +2418,7 @@
     <mergeCell ref="A23:A28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11:C28">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2026.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2026.xlsx
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2227,8 +2227,8 @@
       <c r="B11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -2237,8 +2237,8 @@
       <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -2247,7 +2247,7 @@
       <c r="B13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="8"/>
@@ -2257,8 +2257,8 @@
       <c r="B14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
     </row>
@@ -2267,8 +2267,8 @@
       <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="8"/>
     </row>
@@ -2277,8 +2277,8 @@
       <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="8"/>
     </row>
@@ -2418,7 +2418,7 @@
     <mergeCell ref="A23:A28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C13 C14 C15 C16 C5:C10 C17:C28">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2026.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2026.xlsx
@@ -2113,8 +2113,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2289,8 +2289,8 @@
       <c r="B17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="8"/>
     </row>
@@ -2299,8 +2299,8 @@
       <c r="B18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="8"/>
     </row>
@@ -2309,7 +2309,7 @@
       <c r="B19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="8"/>
@@ -2319,8 +2319,8 @@
       <c r="B20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>30</v>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2329,8 +2329,8 @@
       <c r="B21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>30</v>
+      <c r="C21" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D21" s="8"/>
     </row>
@@ -2339,8 +2339,8 @@
       <c r="B22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>30</v>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -2418,7 +2418,7 @@
     <mergeCell ref="A23:A28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C13 C14 C15 C16 C5:C10 C17:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C18 C19 C20 C21 C22 C5:C16 C23:C28">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2026.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="13160" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="22340" windowHeight="13160" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
     <t>角色</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>第四周</t>
+  </si>
+  <si>
+    <t>视频:每周5</t>
   </si>
 </sst>
 </file>
@@ -462,20 +465,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF77BC65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF77BC65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
         <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF77BC65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
     <fill>
@@ -1104,7 +1107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1113,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1923,7 +1926,7 @@
       <c r="C6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1935,7 +1938,7 @@
       <c r="C7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1947,7 +1950,7 @@
       <c r="C8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1959,7 +1962,7 @@
       <c r="C9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1971,7 +1974,7 @@
       <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1983,7 +1986,7 @@
       <c r="C11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2113,8 +2116,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="$A22:$XFD22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2165,7 +2168,7 @@
       <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
@@ -2175,7 +2178,7 @@
       <c r="B6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8"/>
@@ -2185,7 +2188,7 @@
       <c r="B7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="8"/>
@@ -2195,7 +2198,7 @@
       <c r="B8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
@@ -2205,7 +2208,7 @@
       <c r="B9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="8"/>
@@ -2215,7 +2218,7 @@
       <c r="B10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="8"/>
@@ -2227,7 +2230,7 @@
       <c r="B11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8"/>
@@ -2237,7 +2240,7 @@
       <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="8"/>
@@ -2247,7 +2250,7 @@
       <c r="B13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="8"/>
@@ -2257,7 +2260,7 @@
       <c r="B14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8"/>
@@ -2267,7 +2270,7 @@
       <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8"/>
@@ -2277,7 +2280,7 @@
       <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="8"/>
@@ -2289,7 +2292,7 @@
       <c r="B17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="8"/>
@@ -2299,7 +2302,7 @@
       <c r="B18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="8"/>
@@ -2309,7 +2312,7 @@
       <c r="B19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="8"/>
@@ -2319,7 +2322,7 @@
       <c r="B20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="8"/>
@@ -2329,7 +2332,7 @@
       <c r="B21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="8"/>
@@ -2339,7 +2342,7 @@
       <c r="B22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="8"/>
@@ -2352,7 +2355,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -2362,7 +2365,7 @@
         <v>65</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D24" s="8"/>
     </row>
@@ -2372,7 +2375,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D25" s="8"/>
     </row>
@@ -2382,7 +2385,7 @@
         <v>67</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -2392,7 +2395,7 @@
         <v>68</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D27" s="8"/>
     </row>
@@ -2402,7 +2405,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -2418,7 +2421,7 @@
     <mergeCell ref="A23:A28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C18 C19 C20 C21 C22 C5:C16 C23:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C24 C25 C26 C27 C28 C5:C22">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2430,10 +2433,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2485,7 +2488,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -2495,7 +2498,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -2505,7 +2508,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -2515,7 +2518,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -2525,7 +2528,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -2535,7 +2538,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -2546,7 +2549,7 @@
       <c r="B11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="8"/>
@@ -2557,7 +2560,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -2567,7 +2570,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
     </row>
@@ -2577,38 +2580,38 @@
         <v>67</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" ht="17" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" ht="17" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" ht="17" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" ht="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="8"/>
@@ -2616,9 +2619,9 @@
     <row r="18" ht="17" spans="1:4">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="8"/>
@@ -2626,9 +2629,9 @@
     <row r="19" ht="17" spans="1:4">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="8"/>
@@ -2636,19 +2639,21 @@
     <row r="20" ht="17" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" ht="17" spans="1:4">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="B21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
@@ -2656,21 +2661,19 @@
     <row r="22" ht="17" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" ht="17" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="8"/>
@@ -2678,9 +2681,9 @@
     <row r="24" ht="17" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="8"/>
@@ -2688,42 +2691,12 @@
     <row r="25" ht="17" spans="1:4">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="8"/>
-    </row>
-    <row r="26" ht="17" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" ht="17" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" ht="17" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2732,12 +2705,12 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C25 C16:C19 C20:C24">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
